--- a/焦炭/eta/焦炭港口价格（准一级，日照）_月度数据.xlsx
+++ b/焦炭/eta/焦炭港口价格（准一级，日照）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1427.9788</v>
+        <v>1770.3742</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1457.6923</v>
+        <v>1467.3333</v>
       </c>
       <c r="C3" t="n">
-        <v>1474.3712</v>
+        <v>1507.1619</v>
       </c>
     </row>
     <row r="4">
